--- a/data/master_AR.xlsx
+++ b/data/master_AR.xlsx
@@ -1792,13 +1792,13 @@
         <v>211</v>
       </c>
       <c r="C2" s="0">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="D2" s="0">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E2" s="0">
-        <v>4</v>
+        <v>45.329999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -1807,13 +1807,13 @@
         <v>212</v>
       </c>
       <c r="C3" s="0">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D3" s="0">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E3" s="0">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -1822,13 +1822,13 @@
         <v>213</v>
       </c>
       <c r="C4" s="0">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D4" s="0">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0">
-        <v>4</v>
+        <v>50.670000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -1837,13 +1837,13 @@
         <v>214</v>
       </c>
       <c r="C5" s="0">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="D5" s="0">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="E5" s="0">
-        <v>2.7400000000000002</v>
+        <v>40.409999999999997</v>
       </c>
     </row>
     <row r="6">
@@ -1852,13 +1852,13 @@
         <v>215</v>
       </c>
       <c r="C6" s="0">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="D6" s="0">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E6" s="0">
-        <v>2.0499999999999998</v>
+        <v>56.159999999999997</v>
       </c>
     </row>
     <row r="7">
@@ -1867,13 +1867,13 @@
         <v>216</v>
       </c>
       <c r="C7" s="0">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D7" s="0">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E7" s="0">
-        <v>5.4100000000000001</v>
+        <v>44.590000000000003</v>
       </c>
     </row>
     <row r="8">
@@ -1882,13 +1882,13 @@
         <v>217</v>
       </c>
       <c r="C8" s="0">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0">
-        <v>1.3500000000000001</v>
+        <v>43.240000000000002</v>
       </c>
     </row>
     <row r="9">
@@ -1897,13 +1897,13 @@
         <v>218</v>
       </c>
       <c r="C9" s="0">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="D9" s="0">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E9" s="0">
-        <v>4.5</v>
+        <v>42.340000000000003</v>
       </c>
     </row>
     <row r="10">
@@ -1912,13 +1912,13 @@
         <v>219</v>
       </c>
       <c r="C10" s="0">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="D10" s="0">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E10" s="0">
-        <v>2.7000000000000002</v>
+        <v>56.759999999999998</v>
       </c>
     </row>
     <row r="11">
@@ -1927,13 +1927,13 @@
         <v>220</v>
       </c>
       <c r="C11" s="0">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D11" s="0">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E11" s="0">
-        <v>1.8200000000000001</v>
+        <v>38.18</v>
       </c>
     </row>
     <row r="12">
@@ -1942,13 +1942,13 @@
         <v>221</v>
       </c>
       <c r="C12" s="0">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="D12" s="0">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E12" s="0">
-        <v>2.73</v>
+        <v>51.82</v>
       </c>
     </row>
     <row r="13">
@@ -1957,13 +1957,13 @@
         <v>222</v>
       </c>
       <c r="C13" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E13" s="0">
-        <v>1.3700000000000001</v>
+        <v>63.009999999999998</v>
       </c>
     </row>
     <row r="14">
@@ -1972,13 +1972,13 @@
         <v>223</v>
       </c>
       <c r="C14" s="0">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D14" s="0">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E14" s="0">
-        <v>2.7400000000000002</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="15">
@@ -1987,13 +1987,13 @@
         <v>224</v>
       </c>
       <c r="C15" s="0">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E15" s="0">
-        <v>2.7000000000000002</v>
+        <v>56.759999999999998</v>
       </c>
     </row>
     <row r="16">
@@ -2002,13 +2002,13 @@
         <v>225</v>
       </c>
       <c r="C16" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D16" s="0">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E16" s="0">
-        <v>5.2599999999999998</v>
+        <v>44.740000000000002</v>
       </c>
     </row>
     <row r="17">
@@ -2017,13 +2017,13 @@
         <v>226</v>
       </c>
       <c r="C17" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D17" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E17" s="0">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -2032,13 +2032,13 @@
         <v>227</v>
       </c>
       <c r="C18" s="0">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D18" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0">
-        <v>3.5699999999999998</v>
+        <v>35.710000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2047,13 +2047,13 @@
         <v>228</v>
       </c>
       <c r="C19" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="0">
-        <v>0</v>
+        <v>33.329999999999998</v>
       </c>
     </row>
     <row r="20">
@@ -2062,13 +2062,13 @@
         <v>229</v>
       </c>
       <c r="C20" s="0">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="D20" s="0">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="E20" s="0">
-        <v>3.3300000000000001</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="21">
@@ -2077,13 +2077,13 @@
         <v>230</v>
       </c>
       <c r="C21" s="0">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="D21" s="0">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E21" s="0">
-        <v>3.3300000000000001</v>
+        <v>45.420000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2127,13 +2127,13 @@
         <v>237</v>
       </c>
       <c r="C2" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0">
-        <v>5.1900000000000004</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="3">
@@ -2142,13 +2142,13 @@
         <v>238</v>
       </c>
       <c r="C3" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="0">
-        <v>3.8999999999999999</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="4">
@@ -2157,13 +2157,13 @@
         <v>239</v>
       </c>
       <c r="C4" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="0">
-        <v>6.4900000000000002</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="5">
@@ -2187,13 +2187,13 @@
         <v>241</v>
       </c>
       <c r="C6" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0">
-        <v>7.5</v>
+        <v>8.3300000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2232,13 +2232,13 @@
         <v>244</v>
       </c>
       <c r="C9" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="0">
-        <v>2.9700000000000002</v>
+        <v>5.9400000000000004</v>
       </c>
     </row>
     <row r="10">
@@ -2247,13 +2247,13 @@
         <v>245</v>
       </c>
       <c r="C10" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="0">
-        <v>3.96</v>
+        <v>4.9500000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -2277,13 +2277,13 @@
         <v>247</v>
       </c>
       <c r="C12" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0">
-        <v>10.42</v>
+        <v>11.460000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -2307,13 +2307,13 @@
         <v>249</v>
       </c>
       <c r="C14" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="0">
-        <v>15.25</v>
+        <v>16.949999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -2337,13 +2337,13 @@
         <v>251</v>
       </c>
       <c r="C16" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="0">
-        <v>10</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="17">
@@ -2397,13 +2397,13 @@
         <v>255</v>
       </c>
       <c r="C20" s="0">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D20" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E20" s="0">
-        <v>2.9199999999999999</v>
+        <v>4.5800000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -2412,13 +2412,13 @@
         <v>256</v>
       </c>
       <c r="C21" s="0">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D21" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" s="0">
-        <v>10.42</v>
+        <v>10.83</v>
       </c>
     </row>
   </sheetData>
@@ -2507,13 +2507,13 @@
         <v>266</v>
       </c>
       <c r="C5" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="0">
-        <v>2.0800000000000001</v>
+        <v>3.4700000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -2537,13 +2537,13 @@
         <v>268</v>
       </c>
       <c r="C7" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0">
-        <v>2.5600000000000001</v>
+        <v>3.8500000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -2567,13 +2567,13 @@
         <v>270</v>
       </c>
       <c r="C9" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0">
-        <v>1.8200000000000001</v>
+        <v>3.6400000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -2732,13 +2732,13 @@
         <v>281</v>
       </c>
       <c r="C20" s="0">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D20" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" s="0">
-        <v>1.25</v>
+        <v>2.0800000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -2797,13 +2797,13 @@
         <v>289</v>
       </c>
       <c r="C2" s="0">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D2" s="0">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E2" s="0">
-        <v>9.0299999999999994</v>
+        <v>17.359999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2812,13 +2812,13 @@
         <v>290</v>
       </c>
       <c r="C3" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0">
-        <v>15.279999999999999</v>
+        <v>18.059999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -2827,13 +2827,13 @@
         <v>291</v>
       </c>
       <c r="C4" s="0">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D4" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0">
-        <v>2.7799999999999998</v>
+        <v>16.670000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -2842,13 +2842,13 @@
         <v>292</v>
       </c>
       <c r="C5" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0">
-        <v>12.5</v>
+        <v>13.890000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -2857,13 +2857,13 @@
         <v>293</v>
       </c>
       <c r="C6" s="0">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D6" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E6" s="0">
-        <v>2.7799999999999998</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="7">
@@ -2872,13 +2872,13 @@
         <v>294</v>
       </c>
       <c r="C7" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="0">
-        <v>10.130000000000001</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="8">
@@ -2887,13 +2887,13 @@
         <v>295</v>
       </c>
       <c r="C8" s="0">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D8" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E8" s="0">
-        <v>7.5899999999999999</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="9">
@@ -2902,13 +2902,13 @@
         <v>296</v>
       </c>
       <c r="C9" s="0">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D9" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0">
-        <v>7.21</v>
+        <v>9.9100000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -2917,13 +2917,13 @@
         <v>297</v>
       </c>
       <c r="C10" s="0">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D10" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0">
-        <v>1.8</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="11">
@@ -2932,13 +2932,13 @@
         <v>298</v>
       </c>
       <c r="C11" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="0">
-        <v>20</v>
+        <v>20.949999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2947,13 +2947,13 @@
         <v>299</v>
       </c>
       <c r="C12" s="0">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D12" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E12" s="0">
-        <v>3.8100000000000001</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="13">
@@ -2977,13 +2977,13 @@
         <v>301</v>
       </c>
       <c r="C14" s="0">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D14" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E14" s="0">
-        <v>5.71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -3007,13 +3007,13 @@
         <v>303</v>
       </c>
       <c r="C16" s="0">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D16" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E16" s="0">
-        <v>5.4100000000000001</v>
+        <v>32.43</v>
       </c>
     </row>
     <row r="17">
@@ -3022,13 +3022,13 @@
         <v>304</v>
       </c>
       <c r="C17" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="18">
@@ -3037,13 +3037,13 @@
         <v>305</v>
       </c>
       <c r="C18" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D18" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E18" s="0">
-        <v>9.3800000000000008</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -3052,13 +3052,13 @@
         <v>306</v>
       </c>
       <c r="C19" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -3067,13 +3067,13 @@
         <v>307</v>
       </c>
       <c r="C20" s="0">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D20" s="0">
+        <v>24</v>
+      </c>
+      <c r="E20" s="0">
         <v>10</v>
-      </c>
-      <c r="E20" s="0">
-        <v>4.1699999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3082,13 +3082,13 @@
         <v>308</v>
       </c>
       <c r="C21" s="0">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D21" s="0">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E21" s="0">
-        <v>11.67</v>
+        <v>18.329999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3132,13 +3132,13 @@
         <v>315</v>
       </c>
       <c r="C2" s="0">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D2" s="0">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0">
-        <v>13.33</v>
+        <v>27.329999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -3147,13 +3147,13 @@
         <v>316</v>
       </c>
       <c r="C3" s="0">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D3" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E3" s="0">
-        <v>17.329999999999998</v>
+        <v>29.329999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -3162,13 +3162,13 @@
         <v>317</v>
       </c>
       <c r="C4" s="0">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D4" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E4" s="0">
-        <v>9.3300000000000001</v>
+        <v>25.329999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -3177,13 +3177,13 @@
         <v>318</v>
       </c>
       <c r="C5" s="0">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D5" s="0">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0">
-        <v>19.73</v>
+        <v>31.289999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3192,13 +3192,13 @@
         <v>319</v>
       </c>
       <c r="C6" s="0">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D6" s="0">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E6" s="0">
-        <v>12.93</v>
+        <v>29.93</v>
       </c>
     </row>
     <row r="7">
@@ -3207,13 +3207,13 @@
         <v>320</v>
       </c>
       <c r="C7" s="0">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D7" s="0">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0">
-        <v>24.68</v>
+        <v>37.659999999999997</v>
       </c>
     </row>
     <row r="8">
@@ -3222,13 +3222,13 @@
         <v>321</v>
       </c>
       <c r="C8" s="0">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D8" s="0">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E8" s="0">
-        <v>14.289999999999999</v>
+        <v>32.469999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3237,13 +3237,13 @@
         <v>322</v>
       </c>
       <c r="C9" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D9" s="0">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E9" s="0">
-        <v>27.43</v>
+        <v>38.049999999999997</v>
       </c>
     </row>
     <row r="10">
@@ -3252,13 +3252,13 @@
         <v>323</v>
       </c>
       <c r="C10" s="0">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D10" s="0">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E10" s="0">
-        <v>16.809999999999999</v>
+        <v>37.170000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -3267,13 +3267,13 @@
         <v>324</v>
       </c>
       <c r="C11" s="0">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D11" s="0">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E11" s="0">
-        <v>10.09</v>
+        <v>22.940000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3282,13 +3282,13 @@
         <v>325</v>
       </c>
       <c r="C12" s="0">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D12" s="0">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E12" s="0">
-        <v>6.4199999999999999</v>
+        <v>19.27</v>
       </c>
     </row>
     <row r="13">
@@ -3297,13 +3297,13 @@
         <v>326</v>
       </c>
       <c r="C13" s="0">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E13" s="0">
-        <v>22.370000000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -3312,13 +3312,13 @@
         <v>327</v>
       </c>
       <c r="C14" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D14" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E14" s="0">
-        <v>2.8199999999999998</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="15">
@@ -3327,13 +3327,13 @@
         <v>328</v>
       </c>
       <c r="C15" s="0">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D15" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E15" s="0">
-        <v>13.16</v>
+        <v>39.469999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3342,13 +3342,13 @@
         <v>329</v>
       </c>
       <c r="C16" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="0">
-        <v>5.4100000000000001</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="17">
@@ -3357,13 +3357,13 @@
         <v>330</v>
       </c>
       <c r="C17" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -3372,13 +3372,13 @@
         <v>331</v>
       </c>
       <c r="C18" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="0">
-        <v>11.539999999999999</v>
+        <v>15.380000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3402,13 +3402,13 @@
         <v>333</v>
       </c>
       <c r="C20" s="0">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="D20" s="0">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E20" s="0">
-        <v>21.670000000000002</v>
+        <v>37.079999999999998</v>
       </c>
     </row>
     <row r="21">
@@ -3417,13 +3417,13 @@
         <v>334</v>
       </c>
       <c r="C21" s="0">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="D21" s="0">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E21" s="0">
-        <v>8.75</v>
+        <v>21.25</v>
       </c>
     </row>
   </sheetData>
@@ -3467,13 +3467,13 @@
         <v>341</v>
       </c>
       <c r="C2" s="0">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="D2" s="0">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E2" s="0">
-        <v>10.27</v>
+        <v>37.670000000000002</v>
       </c>
     </row>
     <row r="3">
@@ -3482,13 +3482,13 @@
         <v>342</v>
       </c>
       <c r="C3" s="0">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D3" s="0">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0">
-        <v>12.33</v>
+        <v>46.579999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -3497,13 +3497,13 @@
         <v>343</v>
       </c>
       <c r="C4" s="0">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D4" s="0">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E4" s="0">
-        <v>8.2200000000000006</v>
+        <v>28.77</v>
       </c>
     </row>
     <row r="5">
@@ -3512,13 +3512,13 @@
         <v>344</v>
       </c>
       <c r="C5" s="0">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D5" s="0">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E5" s="0">
-        <v>26.43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -3527,13 +3527,13 @@
         <v>345</v>
       </c>
       <c r="C6" s="0">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="D6" s="0">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E6" s="0">
-        <v>20</v>
+        <v>44.289999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3542,13 +3542,13 @@
         <v>346</v>
       </c>
       <c r="C7" s="0">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E7" s="0">
-        <v>13.33</v>
+        <v>46.670000000000002</v>
       </c>
     </row>
     <row r="8">
@@ -3557,13 +3557,13 @@
         <v>347</v>
       </c>
       <c r="C8" s="0">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D8" s="0">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0">
-        <v>14.67</v>
+        <v>34.670000000000002</v>
       </c>
     </row>
     <row r="9">
@@ -3572,13 +3572,13 @@
         <v>348</v>
       </c>
       <c r="C9" s="0">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D9" s="0">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>16.98</v>
+        <v>47.170000000000002</v>
       </c>
     </row>
     <row r="10">
@@ -3587,13 +3587,13 @@
         <v>349</v>
       </c>
       <c r="C10" s="0">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D10" s="0">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E10" s="0">
-        <v>12.26</v>
+        <v>34.909999999999997</v>
       </c>
     </row>
     <row r="11">
@@ -3602,13 +3602,13 @@
         <v>350</v>
       </c>
       <c r="C11" s="0">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D11" s="0">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E11" s="0">
-        <v>26.170000000000002</v>
+        <v>57.009999999999998</v>
       </c>
     </row>
     <row r="12">
@@ -3617,13 +3617,13 @@
         <v>351</v>
       </c>
       <c r="C12" s="0">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D12" s="0">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E12" s="0">
-        <v>19.629999999999999</v>
+        <v>42.990000000000002</v>
       </c>
     </row>
     <row r="13">
@@ -3632,13 +3632,13 @@
         <v>352</v>
       </c>
       <c r="C13" s="0">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D13" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E13" s="0">
-        <v>14.289999999999999</v>
+        <v>37.140000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3647,13 +3647,13 @@
         <v>353</v>
       </c>
       <c r="C14" s="0">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D14" s="0">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E14" s="0">
-        <v>25.710000000000001</v>
+        <v>51.43</v>
       </c>
     </row>
     <row r="15">
@@ -3662,13 +3662,13 @@
         <v>354</v>
       </c>
       <c r="C15" s="0">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D15" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E15" s="0">
-        <v>8.1099999999999994</v>
+        <v>27.030000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3677,13 +3677,13 @@
         <v>355</v>
       </c>
       <c r="C16" s="0">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D16" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0">
-        <v>8.3300000000000001</v>
+        <v>30.559999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3692,13 +3692,13 @@
         <v>356</v>
       </c>
       <c r="C17" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>7.1399999999999997</v>
       </c>
     </row>
     <row r="18">
@@ -3707,13 +3707,13 @@
         <v>357</v>
       </c>
       <c r="C18" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D18" s="0">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E18" s="0">
-        <v>12.5</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="19">
@@ -3722,13 +3722,13 @@
         <v>358</v>
       </c>
       <c r="C19" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="0">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -3737,13 +3737,13 @@
         <v>359</v>
       </c>
       <c r="C20" s="0">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="D20" s="0">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E20" s="0">
-        <v>13.75</v>
+        <v>39.170000000000002</v>
       </c>
     </row>
     <row r="21">
@@ -3752,13 +3752,13 @@
         <v>360</v>
       </c>
       <c r="C21" s="0">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="D21" s="0">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="E21" s="0">
-        <v>21.670000000000002</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3802,13 +3802,13 @@
         <v>367</v>
       </c>
       <c r="C2" s="0">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D2" s="0">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E2" s="0">
-        <v>17.390000000000001</v>
+        <v>38.409999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -3817,13 +3817,13 @@
         <v>368</v>
       </c>
       <c r="C3" s="0">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D3" s="0">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E3" s="0">
-        <v>18.84</v>
+        <v>39.130000000000003</v>
       </c>
     </row>
     <row r="4">
@@ -3832,13 +3832,13 @@
         <v>369</v>
       </c>
       <c r="C4" s="0">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D4" s="0">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E4" s="0">
-        <v>15.94</v>
+        <v>37.68</v>
       </c>
     </row>
     <row r="5">
@@ -3847,13 +3847,13 @@
         <v>370</v>
       </c>
       <c r="C5" s="0">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D5" s="0">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E5" s="0">
-        <v>18.550000000000001</v>
+        <v>41.939999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -3862,13 +3862,13 @@
         <v>371</v>
       </c>
       <c r="C6" s="0">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D6" s="0">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E6" s="0">
-        <v>12.1</v>
+        <v>29.84</v>
       </c>
     </row>
     <row r="7">
@@ -3877,13 +3877,13 @@
         <v>372</v>
       </c>
       <c r="C7" s="0">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D7" s="0">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E7" s="0">
-        <v>13.43</v>
+        <v>32.840000000000003</v>
       </c>
     </row>
     <row r="8">
@@ -3892,13 +3892,13 @@
         <v>373</v>
       </c>
       <c r="C8" s="0">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D8" s="0">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0">
-        <v>23.879999999999999</v>
+        <v>38.810000000000002</v>
       </c>
     </row>
     <row r="9">
@@ -3907,13 +3907,13 @@
         <v>374</v>
       </c>
       <c r="C9" s="0">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D9" s="0">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E9" s="0">
-        <v>21.57</v>
+        <v>46.079999999999998</v>
       </c>
     </row>
     <row r="10">
@@ -3922,13 +3922,13 @@
         <v>375</v>
       </c>
       <c r="C10" s="0">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D10" s="0">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E10" s="0">
-        <v>11.76</v>
+        <v>34.310000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -3937,13 +3937,13 @@
         <v>376</v>
       </c>
       <c r="C11" s="0">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D11" s="0">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E11" s="0">
-        <v>15.380000000000001</v>
+        <v>35.159999999999997</v>
       </c>
     </row>
     <row r="12">
@@ -3952,13 +3952,13 @@
         <v>377</v>
       </c>
       <c r="C12" s="0">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D12" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E12" s="0">
-        <v>15.380000000000001</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="13">
@@ -3967,13 +3967,13 @@
         <v>378</v>
       </c>
       <c r="C13" s="0">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D13" s="0">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E13" s="0">
-        <v>9.3800000000000008</v>
+        <v>35.939999999999998</v>
       </c>
     </row>
     <row r="14">
@@ -3982,13 +3982,13 @@
         <v>379</v>
       </c>
       <c r="C14" s="0">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E14" s="0">
-        <v>15</v>
+        <v>23.329999999999998</v>
       </c>
     </row>
     <row r="15">
@@ -3997,13 +3997,13 @@
         <v>380</v>
       </c>
       <c r="C15" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D15" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E15" s="0">
-        <v>16.129999999999999</v>
+        <v>45.159999999999997</v>
       </c>
     </row>
     <row r="16">
@@ -4012,13 +4012,13 @@
         <v>381</v>
       </c>
       <c r="C16" s="0">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D16" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E16" s="0">
-        <v>15.789999999999999</v>
+        <v>31.579999999999998</v>
       </c>
     </row>
     <row r="17">
@@ -4027,13 +4027,13 @@
         <v>382</v>
       </c>
       <c r="C17" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0">
-        <v>27.27</v>
+        <v>45.450000000000003</v>
       </c>
     </row>
     <row r="18">
@@ -4042,13 +4042,13 @@
         <v>383</v>
       </c>
       <c r="C18" s="0">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D18" s="0">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E18" s="0">
-        <v>18.059999999999999</v>
+        <v>48.609999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -4057,13 +4057,13 @@
         <v>384</v>
       </c>
       <c r="C19" s="0">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19" s="0">
-        <v>15.380000000000001</v>
+        <v>26.920000000000002</v>
       </c>
     </row>
     <row r="20">
@@ -4072,13 +4072,13 @@
         <v>385</v>
       </c>
       <c r="C20" s="0">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="D20" s="0">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="E20" s="0">
-        <v>15.83</v>
+        <v>42.079999999999998</v>
       </c>
     </row>
     <row r="21">
@@ -4087,13 +4087,13 @@
         <v>386</v>
       </c>
       <c r="C21" s="0">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="D21" s="0">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="E21" s="0">
-        <v>17.920000000000002</v>
+        <v>35.829999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4137,13 +4137,13 @@
         <v>393</v>
       </c>
       <c r="C2" s="0">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0">
-        <v>0.68000000000000005</v>
+        <v>2.7400000000000002</v>
       </c>
     </row>
     <row r="3">
@@ -4152,13 +4152,13 @@
         <v>394</v>
       </c>
       <c r="C3" s="0">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0">
-        <v>1.3700000000000001</v>
+        <v>5.4800000000000004</v>
       </c>
     </row>
     <row r="4">
@@ -4212,13 +4212,13 @@
         <v>398</v>
       </c>
       <c r="C7" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>2.6000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4272,13 +4272,13 @@
         <v>402</v>
       </c>
       <c r="C11" s="0">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0">
-        <v>0.90000000000000002</v>
+        <v>3.6000000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -4392,13 +4392,13 @@
         <v>410</v>
       </c>
       <c r="C19" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -4422,13 +4422,13 @@
         <v>412</v>
       </c>
       <c r="C21" s="0">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D21" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" s="0">
-        <v>0.41999999999999998</v>
+        <v>1.6699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4807,13 +4807,13 @@
         <v>445</v>
       </c>
       <c r="C2" s="0">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D2" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0">
-        <v>1.52</v>
+        <v>4.5499999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -4822,13 +4822,13 @@
         <v>446</v>
       </c>
       <c r="C3" s="0">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D3" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" s="0">
-        <v>3.0299999999999998</v>
+        <v>9.0899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4852,13 +4852,13 @@
         <v>448</v>
       </c>
       <c r="C5" s="0">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D5" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0">
-        <v>4.6500000000000004</v>
+        <v>8.5299999999999994</v>
       </c>
     </row>
     <row r="6">
@@ -4867,13 +4867,13 @@
         <v>449</v>
       </c>
       <c r="C6" s="0">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="0">
-        <v>0.78000000000000003</v>
+        <v>2.3300000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4882,13 +4882,13 @@
         <v>450</v>
       </c>
       <c r="C7" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" s="0">
-        <v>2.7000000000000002</v>
+        <v>5.4100000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4897,13 +4897,13 @@
         <v>451</v>
       </c>
       <c r="C8" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="9">
@@ -4912,13 +4912,13 @@
         <v>452</v>
       </c>
       <c r="C9" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -4942,13 +4942,13 @@
         <v>454</v>
       </c>
       <c r="C11" s="0">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D11" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E11" s="0">
-        <v>6.3200000000000003</v>
+        <v>12.630000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -4957,13 +4957,13 @@
         <v>455</v>
       </c>
       <c r="C12" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="0">
-        <v>1.05</v>
+        <v>3.1600000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -4987,13 +4987,13 @@
         <v>457</v>
       </c>
       <c r="C14" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0">
-        <v>1.5600000000000001</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="15">
@@ -5032,13 +5032,13 @@
         <v>460</v>
       </c>
       <c r="C17" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>3.5699999999999998</v>
       </c>
     </row>
     <row r="18">
@@ -5047,13 +5047,13 @@
         <v>461</v>
       </c>
       <c r="C18" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="0">
-        <v>0</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="19">
@@ -5077,13 +5077,13 @@
         <v>463</v>
       </c>
       <c r="C20" s="0">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D20" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="0">
-        <v>0.82999999999999996</v>
+        <v>2.0800000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -5092,13 +5092,13 @@
         <v>464</v>
       </c>
       <c r="C21" s="0">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D21" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E21" s="0">
-        <v>2.9199999999999999</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -5382,13 +5382,13 @@
         <v>19</v>
       </c>
       <c r="C18" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0">
-        <v>0</v>
+        <v>2.9399999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -5427,13 +5427,13 @@
         <v>22</v>
       </c>
       <c r="C21" s="0">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="0">
-        <v>0.82999999999999996</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -5522,13 +5522,13 @@
         <v>474</v>
       </c>
       <c r="C5" s="0">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D5" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5" s="0">
-        <v>2.6499999999999999</v>
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="6">
@@ -5537,13 +5537,13 @@
         <v>475</v>
       </c>
       <c r="C6" s="0">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0">
-        <v>1.99</v>
+        <v>3.3100000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5567,13 +5567,13 @@
         <v>477</v>
       </c>
       <c r="C8" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="0">
-        <v>3.8999999999999999</v>
+        <v>5.1900000000000004</v>
       </c>
     </row>
     <row r="9">
@@ -5582,13 +5582,13 @@
         <v>478</v>
       </c>
       <c r="C9" s="0">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D9" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0">
-        <v>1.75</v>
+        <v>4.3899999999999997</v>
       </c>
     </row>
     <row r="10">
@@ -5597,13 +5597,13 @@
         <v>479</v>
       </c>
       <c r="C10" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="0">
-        <v>2.6299999999999999</v>
+        <v>4.3899999999999997</v>
       </c>
     </row>
     <row r="11">
@@ -5642,13 +5642,13 @@
         <v>482</v>
       </c>
       <c r="C13" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="0">
-        <v>3.8999999999999999</v>
+        <v>6.4900000000000002</v>
       </c>
     </row>
     <row r="14">
@@ -5747,13 +5747,13 @@
         <v>489</v>
       </c>
       <c r="C20" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D20" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E20" s="0">
-        <v>2.0800000000000001</v>
+        <v>4.1699999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -5812,13 +5812,13 @@
         <v>497</v>
       </c>
       <c r="C2" s="0">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D2" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0">
-        <v>5.4100000000000001</v>
+        <v>8.1099999999999994</v>
       </c>
     </row>
     <row r="3">
@@ -5827,13 +5827,13 @@
         <v>498</v>
       </c>
       <c r="C3" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0">
-        <v>8.1099999999999994</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="4">
@@ -5842,13 +5842,13 @@
         <v>499</v>
       </c>
       <c r="C4" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="0">
-        <v>2.7000000000000002</v>
+        <v>4.0499999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -5857,13 +5857,13 @@
         <v>500</v>
       </c>
       <c r="C5" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D5" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" s="0">
-        <v>3.9700000000000002</v>
+        <v>6.6200000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5872,13 +5872,13 @@
         <v>501</v>
       </c>
       <c r="C6" s="0">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0">
-        <v>1.99</v>
+        <v>3.3100000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5887,13 +5887,13 @@
         <v>502</v>
       </c>
       <c r="C7" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" s="0">
-        <v>5.1299999999999999</v>
+        <v>8.9700000000000006</v>
       </c>
     </row>
     <row r="8">
@@ -5902,13 +5902,13 @@
         <v>503</v>
       </c>
       <c r="C8" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="9">
@@ -5917,13 +5917,13 @@
         <v>504</v>
       </c>
       <c r="C9" s="0">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D9" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9" s="0">
-        <v>3.4500000000000002</v>
+        <v>6.9000000000000004</v>
       </c>
     </row>
     <row r="10">
@@ -5932,13 +5932,13 @@
         <v>505</v>
       </c>
       <c r="C10" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0">
-        <v>2.5899999999999999</v>
+        <v>3.4500000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -5947,13 +5947,13 @@
         <v>506</v>
       </c>
       <c r="C11" s="0">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E11" s="0">
-        <v>7.3399999999999999</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="12">
@@ -5962,13 +5962,13 @@
         <v>507</v>
       </c>
       <c r="C12" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="0">
-        <v>1.8300000000000001</v>
+        <v>3.6699999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5977,13 +5977,13 @@
         <v>508</v>
       </c>
       <c r="C13" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0">
-        <v>3.8999999999999999</v>
+        <v>5.1900000000000004</v>
       </c>
     </row>
     <row r="14">
@@ -5992,13 +5992,13 @@
         <v>509</v>
       </c>
       <c r="C14" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0">
-        <v>0</v>
+        <v>1.3500000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6007,13 +6007,13 @@
         <v>510</v>
       </c>
       <c r="C15" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="0">
-        <v>5.71</v>
+        <v>8.5700000000000003</v>
       </c>
     </row>
     <row r="16">
@@ -6037,13 +6037,13 @@
         <v>512</v>
       </c>
       <c r="C17" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>8.3300000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -6082,13 +6082,13 @@
         <v>515</v>
       </c>
       <c r="C20" s="0">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D20" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E20" s="0">
-        <v>2.9199999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -6097,13 +6097,13 @@
         <v>516</v>
       </c>
       <c r="C21" s="0">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D21" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="0">
-        <v>4.1699999999999999</v>
+        <v>6.6699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6147,13 +6147,13 @@
         <v>523</v>
       </c>
       <c r="C2" s="0">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="0">
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -6162,13 +6162,13 @@
         <v>524</v>
       </c>
       <c r="C3" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>1.3500000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -6177,13 +6177,13 @@
         <v>525</v>
       </c>
       <c r="C4" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -6192,13 +6192,13 @@
         <v>526</v>
       </c>
       <c r="C5" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="0">
-        <v>2.7000000000000002</v>
+        <v>3.3799999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -6222,13 +6222,13 @@
         <v>528</v>
       </c>
       <c r="C7" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0">
-        <v>1.3500000000000001</v>
+        <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="8">
@@ -6252,13 +6252,13 @@
         <v>530</v>
       </c>
       <c r="C9" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0">
-        <v>2.7000000000000002</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10">
@@ -6267,13 +6267,13 @@
         <v>531</v>
       </c>
       <c r="C10" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="0">
-        <v>1.8</v>
+        <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -6297,13 +6297,13 @@
         <v>533</v>
       </c>
       <c r="C12" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="0">
-        <v>0.90000000000000002</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13">
@@ -6342,13 +6342,13 @@
         <v>536</v>
       </c>
       <c r="C15" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0">
-        <v>0</v>
+        <v>2.6299999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6357,13 +6357,13 @@
         <v>537</v>
       </c>
       <c r="C16" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0">
-        <v>0</v>
+        <v>2.7799999999999998</v>
       </c>
     </row>
     <row r="17">
@@ -6417,13 +6417,13 @@
         <v>541</v>
       </c>
       <c r="C20" s="0">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D20" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" s="0">
-        <v>2.0800000000000001</v>
+        <v>3.3300000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -6432,13 +6432,13 @@
         <v>542</v>
       </c>
       <c r="C21" s="0">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="0">
-        <v>0.82999999999999996</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -6817,13 +6817,13 @@
         <v>55</v>
       </c>
       <c r="C2" s="0">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D2" s="0">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E2" s="0">
-        <v>2.0299999999999998</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="3">
@@ -6832,13 +6832,13 @@
         <v>56</v>
       </c>
       <c r="C3" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0">
-        <v>1.3500000000000001</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="4">
@@ -6847,13 +6847,13 @@
         <v>57</v>
       </c>
       <c r="C4" s="0">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D4" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4" s="0">
-        <v>2.7000000000000002</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="5">
@@ -6862,13 +6862,13 @@
         <v>58</v>
       </c>
       <c r="C5" s="0">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0">
-        <v>0.76000000000000001</v>
+        <v>9.1600000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -6877,13 +6877,13 @@
         <v>59</v>
       </c>
       <c r="C6" s="0">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D6" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E6" s="0">
-        <v>3.0499999999999998</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="7">
@@ -6892,13 +6892,13 @@
         <v>60</v>
       </c>
       <c r="C7" s="0">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="0">
-        <v>5.4800000000000004</v>
+        <v>8.2200000000000006</v>
       </c>
     </row>
     <row r="8">
@@ -6907,13 +6907,13 @@
         <v>61</v>
       </c>
       <c r="C8" s="0">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>6.8499999999999996</v>
       </c>
     </row>
     <row r="9">
@@ -6922,13 +6922,13 @@
         <v>62</v>
       </c>
       <c r="C9" s="0">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="10">
@@ -6937,13 +6937,13 @@
         <v>63</v>
       </c>
       <c r="C10" s="0">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D10" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0">
-        <v>1.96</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="11">
@@ -6952,13 +6952,13 @@
         <v>64</v>
       </c>
       <c r="C11" s="0">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D11" s="0">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E11" s="0">
-        <v>1.9399999999999999</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="12">
@@ -6967,13 +6967,13 @@
         <v>65</v>
       </c>
       <c r="C12" s="0">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D12" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0">
-        <v>3.8799999999999999</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="13">
@@ -6982,13 +6982,13 @@
         <v>66</v>
       </c>
       <c r="C13" s="0">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D13" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13" s="0">
-        <v>1.5600000000000001</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="14">
@@ -6997,13 +6997,13 @@
         <v>67</v>
       </c>
       <c r="C14" s="0">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D14" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E14" s="0">
-        <v>4.4800000000000004</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="15">
@@ -7012,13 +7012,13 @@
         <v>68</v>
       </c>
       <c r="C15" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15" s="0">
-        <v>2.7799999999999998</v>
+        <v>11.109999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -7027,13 +7027,13 @@
         <v>69</v>
       </c>
       <c r="C16" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="0">
-        <v>2.6299999999999999</v>
+        <v>10.529999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -7042,13 +7042,13 @@
         <v>70</v>
       </c>
       <c r="C17" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>16.670000000000002</v>
       </c>
     </row>
     <row r="18">
@@ -7057,13 +7057,13 @@
         <v>71</v>
       </c>
       <c r="C18" s="0">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" s="0">
-        <v>1.72</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="19">
@@ -7072,13 +7072,13 @@
         <v>72</v>
       </c>
       <c r="C19" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="0">
-        <v>0</v>
+        <v>14.289999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -7087,13 +7087,13 @@
         <v>73</v>
       </c>
       <c r="C20" s="0">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D20" s="0">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E20" s="0">
-        <v>0.82999999999999996</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="21">
@@ -7102,13 +7102,13 @@
         <v>74</v>
       </c>
       <c r="C21" s="0">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="D21" s="0">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E21" s="0">
-        <v>2.9199999999999999</v>
+        <v>10.83</v>
       </c>
     </row>
   </sheetData>
@@ -7197,13 +7197,13 @@
         <v>84</v>
       </c>
       <c r="C5" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0">
-        <v>2.1400000000000001</v>
+        <v>2.8599999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -7227,13 +7227,13 @@
         <v>86</v>
       </c>
       <c r="C7" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="0">
-        <v>4</v>
+        <v>5.3300000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -7287,13 +7287,13 @@
         <v>90</v>
       </c>
       <c r="C11" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0">
-        <v>2.7000000000000002</v>
+        <v>3.6000000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -7437,13 +7437,13 @@
         <v>100</v>
       </c>
       <c r="C21" s="0">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D21" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" s="0">
-        <v>2.5</v>
+        <v>2.9199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7532,13 +7532,13 @@
         <v>110</v>
       </c>
       <c r="C5" s="0">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="0">
-        <v>0</v>
+        <v>1.3100000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -7622,13 +7622,13 @@
         <v>116</v>
       </c>
       <c r="C11" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="0">
-        <v>0.88</v>
+        <v>2.6499999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -7770,13 +7770,13 @@
         <v>126</v>
       </c>
       <c r="C21" s="0">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D21" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="0">
-        <v>0.82999999999999996</v>
+        <v>1.6699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7895,13 +7895,13 @@
         <v>138</v>
       </c>
       <c r="C7" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1.3300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -8155,13 +8155,13 @@
         <v>159</v>
       </c>
       <c r="C2" s="0">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0">
-        <v>0</v>
+        <v>8.1099999999999994</v>
       </c>
     </row>
     <row r="3">
@@ -8170,13 +8170,13 @@
         <v>160</v>
       </c>
       <c r="C3" s="0">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="4">
@@ -8185,13 +8185,13 @@
         <v>161</v>
       </c>
       <c r="C4" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -8200,13 +8200,13 @@
         <v>162</v>
       </c>
       <c r="C5" s="0">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0">
-        <v>0</v>
+        <v>11.029999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -8215,13 +8215,13 @@
         <v>163</v>
       </c>
       <c r="C6" s="0">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>3.4500000000000002</v>
       </c>
     </row>
     <row r="7">
@@ -8230,13 +8230,13 @@
         <v>164</v>
       </c>
       <c r="C7" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>10.960000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -8245,13 +8245,13 @@
         <v>165</v>
       </c>
       <c r="C8" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>1.3700000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -8260,13 +8260,13 @@
         <v>166</v>
       </c>
       <c r="C9" s="0">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>16.219999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -8275,13 +8275,13 @@
         <v>167</v>
       </c>
       <c r="C10" s="0">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D10" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>3.6000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -8290,13 +8290,13 @@
         <v>168</v>
       </c>
       <c r="C11" s="0">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E11" s="0">
-        <v>0</v>
+        <v>7.4100000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -8305,13 +8305,13 @@
         <v>169</v>
       </c>
       <c r="C12" s="0">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>2.7799999999999998</v>
       </c>
     </row>
     <row r="13">
@@ -8320,13 +8320,13 @@
         <v>170</v>
       </c>
       <c r="C13" s="0">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>5.3300000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -8335,13 +8335,13 @@
         <v>171</v>
       </c>
       <c r="C14" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0">
-        <v>0</v>
+        <v>1.4299999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -8350,13 +8350,13 @@
         <v>172</v>
       </c>
       <c r="C15" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="0">
-        <v>0</v>
+        <v>5.2599999999999998</v>
       </c>
     </row>
     <row r="16">
@@ -8380,13 +8380,13 @@
         <v>174</v>
       </c>
       <c r="C17" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="0">
-        <v>8.3300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -8395,13 +8395,13 @@
         <v>175</v>
       </c>
       <c r="C18" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="0">
-        <v>3.3300000000000001</v>
+        <v>6.6699999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -8425,13 +8425,13 @@
         <v>177</v>
       </c>
       <c r="C20" s="0">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D20" s="0">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E20" s="0">
-        <v>0.41999999999999998</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -8440,13 +8440,13 @@
         <v>178</v>
       </c>
       <c r="C21" s="0">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D21" s="0">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E21" s="0">
-        <v>0.41999999999999998</v>
+        <v>4.5800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8490,13 +8490,13 @@
         <v>185</v>
       </c>
       <c r="C2" s="0">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D2" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0">
-        <v>2.6299999999999999</v>
+        <v>5.9199999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -8505,13 +8505,13 @@
         <v>186</v>
       </c>
       <c r="C3" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3" s="0">
-        <v>3.9500000000000002</v>
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="4">
@@ -8520,13 +8520,13 @@
         <v>187</v>
       </c>
       <c r="C4" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="0">
-        <v>1.3200000000000001</v>
+        <v>2.6299999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -8535,13 +8535,13 @@
         <v>188</v>
       </c>
       <c r="C5" s="0">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D5" s="0">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E5" s="0">
-        <v>2.0699999999999998</v>
+        <v>9.6600000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -8550,13 +8550,13 @@
         <v>189</v>
       </c>
       <c r="C6" s="0">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D6" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E6" s="0">
-        <v>2.7599999999999998</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="7">
@@ -8565,13 +8565,13 @@
         <v>190</v>
       </c>
       <c r="C7" s="0">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D7" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E7" s="0">
-        <v>1.28</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="8">
@@ -8580,13 +8580,13 @@
         <v>191</v>
       </c>
       <c r="C8" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="0">
-        <v>1.28</v>
+        <v>2.5600000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -8595,13 +8595,13 @@
         <v>192</v>
       </c>
       <c r="C9" s="0">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D9" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0">
-        <v>3.6000000000000001</v>
+        <v>9.0099999999999998</v>
       </c>
     </row>
     <row r="10">
@@ -8610,13 +8610,13 @@
         <v>193</v>
       </c>
       <c r="C10" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D10" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0">
-        <v>2.7000000000000002</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="11">
@@ -8625,13 +8625,13 @@
         <v>194</v>
       </c>
       <c r="C11" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D11" s="0">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E11" s="0">
-        <v>1.8200000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -8640,13 +8640,13 @@
         <v>195</v>
       </c>
       <c r="C12" s="0">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="0">
-        <v>1.8200000000000001</v>
+        <v>4.5499999999999998</v>
       </c>
     </row>
     <row r="13">
@@ -8655,13 +8655,13 @@
         <v>196</v>
       </c>
       <c r="C13" s="0">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D13" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E13" s="0">
-        <v>4.1100000000000003</v>
+        <v>16.440000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -8670,13 +8670,13 @@
         <v>197</v>
       </c>
       <c r="C14" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0">
-        <v>1.3899999999999999</v>
+        <v>4.1699999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -8685,13 +8685,13 @@
         <v>198</v>
       </c>
       <c r="C15" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="0">
-        <v>2.6299999999999999</v>
+        <v>5.2599999999999998</v>
       </c>
     </row>
     <row r="16">
@@ -8715,13 +8715,13 @@
         <v>200</v>
       </c>
       <c r="C17" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="18">
@@ -8760,13 +8760,13 @@
         <v>203</v>
       </c>
       <c r="C20" s="0">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D20" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E20" s="0">
-        <v>2.9199999999999999</v>
+        <v>9.5800000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -8775,13 +8775,13 @@
         <v>204</v>
       </c>
       <c r="C21" s="0">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D21" s="0">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E21" s="0">
-        <v>1.6699999999999999</v>
+        <v>6.6699999999999999</v>
       </c>
     </row>
   </sheetData>
